--- a/public/excel/datalaporan.xlsx
+++ b/public/excel/datalaporan.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView windowWidth="23040" windowHeight="9924"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="235">
   <si>
     <t>Nama</t>
   </si>
@@ -86,9 +85,6 @@
     <t>kuliah</t>
   </si>
   <si>
-    <t>01/01/2003</t>
-  </si>
-  <si>
     <t>laki-laki</t>
   </si>
   <si>
@@ -125,9 +121,6 @@
     <t>kerja</t>
   </si>
   <si>
-    <t>02/02/2004</t>
-  </si>
-  <si>
     <t>perempuan</t>
   </si>
   <si>
@@ -158,9 +151,6 @@
     <t>menganggur</t>
   </si>
   <si>
-    <t>03/03/2005</t>
-  </si>
-  <si>
     <t>Dedi Prasetyo</t>
   </si>
   <si>
@@ -182,9 +172,6 @@
     <t>Yogyakarta</t>
   </si>
   <si>
-    <t>04/04/2006</t>
-  </si>
-  <si>
     <t>Universitas Gadjah Mada</t>
   </si>
   <si>
@@ -203,9 +190,6 @@
     <t>dwisetiawan@yahoo.com</t>
   </si>
   <si>
-    <t>05/05/2007</t>
-  </si>
-  <si>
     <t>PT Tekno Bersama</t>
   </si>
   <si>
@@ -224,9 +208,6 @@
     <t>rinawulandari@gmail.com</t>
   </si>
   <si>
-    <t>06/06/2008</t>
-  </si>
-  <si>
     <t>Universitas Padjajaran</t>
   </si>
   <si>
@@ -245,9 +226,6 @@
     <t>hendrasantoso@yahoo.com</t>
   </si>
   <si>
-    <t>07/07/2009</t>
-  </si>
-  <si>
     <t>PT Sehat Bersama</t>
   </si>
   <si>
@@ -272,9 +250,6 @@
     <t>Denpasar</t>
   </si>
   <si>
-    <t>08/08/2010</t>
-  </si>
-  <si>
     <t>Irfan Susanto</t>
   </si>
   <si>
@@ -290,9 +265,6 @@
     <t>aldicahyono@gmail.com</t>
   </si>
   <si>
-    <t>09/09/2011</t>
-  </si>
-  <si>
     <t>Joko Widodo</t>
   </si>
   <si>
@@ -308,9 +280,6 @@
     <t>dinapermata@yahoo.com</t>
   </si>
   <si>
-    <t>10/10/2012</t>
-  </si>
-  <si>
     <t>Kurniawan Santoso</t>
   </si>
   <si>
@@ -323,9 +292,6 @@
     <t>yogapradana@outlook.com</t>
   </si>
   <si>
-    <t>11/11/2013</t>
-  </si>
-  <si>
     <t>Luthfi Abdul</t>
   </si>
   <si>
@@ -341,9 +307,6 @@
     <t>sitinurhayati@gmail.com</t>
   </si>
   <si>
-    <t>12/12/2014</t>
-  </si>
-  <si>
     <t>Miftahul Huda</t>
   </si>
   <si>
@@ -359,9 +322,6 @@
     <t>bambangkurniawan@yahoo.com</t>
   </si>
   <si>
-    <t>01/13/2015</t>
-  </si>
-  <si>
     <t>Nanda Pratama</t>
   </si>
   <si>
@@ -377,9 +337,6 @@
     <t>sitiwulandari@gmail.com</t>
   </si>
   <si>
-    <t>02/14/2016</t>
-  </si>
-  <si>
     <t>Oktavianus Setiawan</t>
   </si>
   <si>
@@ -395,9 +352,6 @@
     <t>hendrapratama@outlook.com</t>
   </si>
   <si>
-    <t>03/15/2017</t>
-  </si>
-  <si>
     <t>Prasetyo Wibowo</t>
   </si>
   <si>
@@ -413,9 +367,6 @@
     <t>ritadevi@yahoo.com</t>
   </si>
   <si>
-    <t>04/16/2018</t>
-  </si>
-  <si>
     <t>Qori Rusdianto</t>
   </si>
   <si>
@@ -431,9 +382,6 @@
     <t>diannugraha@gmail.com</t>
   </si>
   <si>
-    <t>05/17/2019</t>
-  </si>
-  <si>
     <t>Universitas Airlangga</t>
   </si>
   <si>
@@ -452,9 +400,6 @@
     <t>sitirahmawati@outlook.com</t>
   </si>
   <si>
-    <t>06/18/2020</t>
-  </si>
-  <si>
     <t>Slamet Santoso</t>
   </si>
   <si>
@@ -470,9 +415,6 @@
     <t>riansuryanto@gmail.com</t>
   </si>
   <si>
-    <t>07/19/2021</t>
-  </si>
-  <si>
     <t>Teguh Wijaya</t>
   </si>
   <si>
@@ -488,9 +430,6 @@
     <t>rinadewi@yahoo.com</t>
   </si>
   <si>
-    <t>08/20/2022</t>
-  </si>
-  <si>
     <t>Umar Abdullah</t>
   </si>
   <si>
@@ -506,9 +445,6 @@
     <t>fajarramadhan@outlook.com</t>
   </si>
   <si>
-    <t>09/21/2023</t>
-  </si>
-  <si>
     <t>Vicky Prasetyo</t>
   </si>
   <si>
@@ -524,9 +460,6 @@
     <t>dewiayu@gmail.com</t>
   </si>
   <si>
-    <t>10/22/2024</t>
-  </si>
-  <si>
     <t>Wahyu Nugroho</t>
   </si>
   <si>
@@ -542,9 +475,6 @@
     <t>hendrawijaya@yahoo.com</t>
   </si>
   <si>
-    <t>11/23/2025</t>
-  </si>
-  <si>
     <t>Xavier Alimudin</t>
   </si>
   <si>
@@ -560,9 +490,6 @@
     <t>ritasusanti@outlook.com</t>
   </si>
   <si>
-    <t>12/24/2026</t>
-  </si>
-  <si>
     <t>Yanto Susanto</t>
   </si>
   <si>
@@ -575,9 +502,6 @@
     <t>budisantoso@gmail.com</t>
   </si>
   <si>
-    <t>01/25/2027</t>
-  </si>
-  <si>
     <t>Zainul Arifin</t>
   </si>
   <si>
@@ -593,9 +517,6 @@
     <t>sitirahayu@yahoo.com</t>
   </si>
   <si>
-    <t>02/26/2028</t>
-  </si>
-  <si>
     <t>Abdul Hakim</t>
   </si>
   <si>
@@ -611,9 +532,6 @@
     <t>andiprabowo@outlook.com</t>
   </si>
   <si>
-    <t>03/27/2029</t>
-  </si>
-  <si>
     <t>Basuki Wibowo</t>
   </si>
   <si>
@@ -629,9 +547,6 @@
     <t>dininuraini@gmail.com</t>
   </si>
   <si>
-    <t>04/28/2030</t>
-  </si>
-  <si>
     <t>Cahyo Nugroho</t>
   </si>
   <si>
@@ -644,9 +559,6 @@
     <t>riansuryanto@yahoo.com</t>
   </si>
   <si>
-    <t>05/29/2031</t>
-  </si>
-  <si>
     <t>Denny Prasetyo</t>
   </si>
   <si>
@@ -659,9 +571,6 @@
     <t>sitiwulandari@outlook.com</t>
   </si>
   <si>
-    <t>06/30/2032</t>
-  </si>
-  <si>
     <t>Edy Suryanto</t>
   </si>
   <si>
@@ -674,9 +583,6 @@
     <t>hendrapratama@gmail.com</t>
   </si>
   <si>
-    <t>07/31/2033</t>
-  </si>
-  <si>
     <t>Fahrul Rahman</t>
   </si>
   <si>
@@ -686,9 +592,6 @@
     <t>pelayan hotel</t>
   </si>
   <si>
-    <t>08/30/2034</t>
-  </si>
-  <si>
     <t>Gilang Pratama</t>
   </si>
   <si>
@@ -701,9 +604,6 @@
     <t>diannugraha@outlook.com</t>
   </si>
   <si>
-    <t>09/30/2035</t>
-  </si>
-  <si>
     <t>Gita Rahayu</t>
   </si>
   <si>
@@ -713,9 +613,6 @@
     <t>sitirahmawati@gmail.com</t>
   </si>
   <si>
-    <t>10/30/2036</t>
-  </si>
-  <si>
     <t>Iwan Santoso</t>
   </si>
   <si>
@@ -725,9 +622,6 @@
     <t>pengacara</t>
   </si>
   <si>
-    <t>11/30/2037</t>
-  </si>
-  <si>
     <t>Joko Nugroho</t>
   </si>
   <si>
@@ -740,9 +634,6 @@
     <t>rinadewi@outlook.com</t>
   </si>
   <si>
-    <t>12/30/2038</t>
-  </si>
-  <si>
     <t>Kusumo Wibowo</t>
   </si>
   <si>
@@ -755,9 +646,6 @@
     <t>fajarramadhan@gmail.com</t>
   </si>
   <si>
-    <t>01/30/2039</t>
-  </si>
-  <si>
     <t>Lukman Hakim</t>
   </si>
   <si>
@@ -770,9 +658,6 @@
     <t>dewiayu@yahoo.com</t>
   </si>
   <si>
-    <t>02/28/2040</t>
-  </si>
-  <si>
     <t>Muharrom Wijaya</t>
   </si>
   <si>
@@ -782,9 +667,6 @@
     <t>hendrawijaya@outlook.com</t>
   </si>
   <si>
-    <t>03/24/2041</t>
-  </si>
-  <si>
     <t>Nizar Abdullah</t>
   </si>
   <si>
@@ -797,9 +679,6 @@
     <t>ritasusanti@gmail.com</t>
   </si>
   <si>
-    <t>04/23/2042</t>
-  </si>
-  <si>
     <t>Oka Prasetyo</t>
   </si>
   <si>
@@ -809,18 +688,12 @@
     <t>budisantoso@outlook.com</t>
   </si>
   <si>
-    <t>05/24/2043</t>
-  </si>
-  <si>
     <t>Prayoga Wicaksono</t>
   </si>
   <si>
     <t>manajer proyek</t>
   </si>
   <si>
-    <t>06/21/2044</t>
-  </si>
-  <si>
     <t>Qori Rusman</t>
   </si>
   <si>
@@ -833,9 +706,6 @@
     <t>andiprabowo@gmail.com</t>
   </si>
   <si>
-    <t>07/25/2045</t>
-  </si>
-  <si>
     <t>Rahmat Santoso</t>
   </si>
   <si>
@@ -843,9 +713,6 @@
   </si>
   <si>
     <t>dininuraini@outlook.com</t>
-  </si>
-  <si>
-    <t>08/26/2046</t>
   </si>
   <si>
     <t>Sigit Wibowo</t>
@@ -857,28 +724,368 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="d/m/yyyy;@"/>
+  </numFmts>
+  <fonts count="21">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -886,21 +1093,318 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1185,41 +1689,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="34.135" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="31.707" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="15.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="16.425" bestFit="true" customWidth="true" style="1"/>
-    <col min="11" max="11" width="16.425" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="19.995" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="28.136" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="23.423" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="25.851" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="24.708" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="21.1388888888889" customWidth="1"/>
+    <col min="2" max="2" width="34.1388888888889" customWidth="1"/>
+    <col min="3" max="3" width="31.7037037037037" customWidth="1"/>
+    <col min="4" max="5" width="12.8518518518519" customWidth="1"/>
+    <col min="6" max="6" width="10.5648148148148" customWidth="1"/>
+    <col min="7" max="7" width="12.8518518518519" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="15.2777777777778" customWidth="1"/>
+    <col min="10" max="10" width="16.4259259259259" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.4259259259259" customWidth="1"/>
+    <col min="12" max="12" width="21.1388888888889" customWidth="1"/>
+    <col min="13" max="13" width="19.9907407407407" customWidth="1"/>
+    <col min="14" max="14" width="28.1388888888889" customWidth="1"/>
+    <col min="15" max="15" width="23.4259259259259" customWidth="1"/>
+    <col min="16" max="16" width="25.8518518518519" customWidth="1"/>
+    <col min="17" max="17" width="18.712962962963" customWidth="1"/>
+    <col min="18" max="18" width="24.7037037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -1306,149 +1806,149 @@
       <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2">
+        <v>37622</v>
+      </c>
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
       <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
         <v>25</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>27</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>29</v>
-      </c>
-      <c r="R2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
       </c>
       <c r="D3">
         <v>2004234567</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>2018</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3">
         <v>89876543210</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2">
+        <v>38019</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>37</v>
       </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
         <v>38</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" t="s">
         <v>39</v>
-      </c>
-      <c r="P3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
         <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
       </c>
       <c r="D4">
         <v>2005345678</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F4">
         <v>2017</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H4">
         <v>82345678901</v>
       </c>
       <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="2">
+        <v>38414</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="P4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" t="s">
         <v>47</v>
       </c>
-      <c r="K4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>50</v>
-      </c>
       <c r="R4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <v>2006456789</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F5">
         <v>2016</v>
@@ -1460,101 +1960,101 @@
         <v>81234567890</v>
       </c>
       <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="2">
+        <v>38811</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="Q5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" t="s">
         <v>55</v>
-      </c>
-      <c r="K5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D6">
         <v>2007567890</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6">
         <v>2015</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6">
         <v>89876543210</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>62</v>
+        <v>33</v>
+      </c>
+      <c r="J6" s="2">
+        <v>39207</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="O6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="P6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Q6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D7">
         <v>2008678901</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F7">
         <v>2014</v>
@@ -1566,42 +2066,42 @@
         <v>82345678901</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>69</v>
+        <v>43</v>
+      </c>
+      <c r="J7" s="2">
+        <v>39605</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="O7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="P7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D8">
         <v>2009789012</v>
@@ -1613,7 +2113,7 @@
         <v>2013</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8">
         <v>81234567890</v>
@@ -1621,46 +2121,46 @@
       <c r="I8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>76</v>
+      <c r="J8" s="2">
+        <v>40001</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M8" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="O8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="P8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="Q8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="R8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D9">
         <v>2010890123</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F9">
         <v>2012</v>
@@ -1672,98 +2172,98 @@
         <v>82345678901</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
+      </c>
+      <c r="J9" s="2">
+        <v>40398</v>
       </c>
       <c r="K9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" t="s">
         <v>25</v>
       </c>
-      <c r="N9" t="s">
-        <v>26</v>
-      </c>
       <c r="O9" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="P9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="Q9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R9" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D10">
         <v>2011901234</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10">
         <v>2011</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H10">
         <v>81234567890</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>91</v>
+        <v>33</v>
+      </c>
+      <c r="J10" s="2">
+        <v>40795</v>
       </c>
       <c r="K10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O10" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="Q10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R10" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D11">
         <v>2012012345</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F11">
         <v>2022</v>
@@ -1775,42 +2275,42 @@
         <v>89876543210</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>97</v>
+        <v>43</v>
+      </c>
+      <c r="J11" s="2">
+        <v>41192</v>
       </c>
       <c r="K11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="O11" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="Q11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R11" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D12">
         <v>2013123456</v>
@@ -1822,7 +2322,7 @@
         <v>2021</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>82345678901</v>
@@ -1830,46 +2330,46 @@
       <c r="I12" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>102</v>
+      <c r="J12" s="2">
+        <v>41589</v>
       </c>
       <c r="K12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M12" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="O12" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="Q12" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="R12" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D13">
         <v>2014234567</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F13">
         <v>2020</v>
@@ -1881,145 +2381,145 @@
         <v>81234567890</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>108</v>
+        <v>51</v>
+      </c>
+      <c r="J13" s="2">
+        <v>41985</v>
       </c>
       <c r="K13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="O13" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="Q13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R13" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D14">
         <v>2015345678</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14">
         <v>2019</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14">
         <v>89876543210</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>114</v>
+        <v>33</v>
+      </c>
+      <c r="J14" s="2">
+        <v>42017</v>
       </c>
       <c r="K14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="O14" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="Q14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R14" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D15">
         <v>2016456789</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F15">
         <v>2018</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H15">
         <v>82345678901</v>
       </c>
       <c r="I15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>120</v>
+        <v>43</v>
+      </c>
+      <c r="J15" s="2">
+        <v>42414</v>
       </c>
       <c r="K15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O15" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="P15" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="Q15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R15" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D16">
         <v>2017567890</v>
@@ -2039,99 +2539,99 @@
       <c r="I16" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>126</v>
+      <c r="J16" s="2">
+        <v>42809</v>
       </c>
       <c r="K16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" t="s">
         <v>25</v>
       </c>
-      <c r="N16" t="s">
-        <v>26</v>
-      </c>
       <c r="O16" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="P16" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="Q16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R16" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D17">
         <v>2018678901</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F17">
         <v>2016</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>89876543210</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>132</v>
+        <v>51</v>
+      </c>
+      <c r="J17" s="2">
+        <v>43206</v>
       </c>
       <c r="K17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M17" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="O17" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="P17" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="Q17" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="R17" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="D18">
         <v>2019789012</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18">
         <v>2015</v>
@@ -2143,95 +2643,95 @@
         <v>82345678901</v>
       </c>
       <c r="I18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>138</v>
+        <v>33</v>
+      </c>
+      <c r="J18" s="2">
+        <v>43602</v>
       </c>
       <c r="K18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N18" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="O18" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="P18" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="Q18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R18" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="D19">
         <v>2020890123</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F19">
         <v>2014</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>81234567890</v>
       </c>
       <c r="I19" t="s">
-        <v>45</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>145</v>
+        <v>43</v>
+      </c>
+      <c r="J19" s="2">
+        <v>44000</v>
       </c>
       <c r="K19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O19" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="P19" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="Q19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R19" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="D20">
         <v>2021901234</v>
@@ -2243,7 +2743,7 @@
         <v>2013</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H20">
         <v>89876543210</v>
@@ -2251,43 +2751,43 @@
       <c r="I20" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>151</v>
+      <c r="J20" s="2">
+        <v>44396</v>
       </c>
       <c r="K20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O20" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="P20" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="Q20" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="R20" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="D21">
         <v>2022012345</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F21">
         <v>2012</v>
@@ -2299,101 +2799,101 @@
         <v>82345678901</v>
       </c>
       <c r="I21" t="s">
-        <v>54</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>157</v>
+        <v>51</v>
+      </c>
+      <c r="J21" s="2">
+        <v>44793</v>
       </c>
       <c r="K21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="O21" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="P21" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="Q21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R21" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="D22">
         <v>2023123456</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22">
         <v>2011</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H22">
         <v>81234567890</v>
       </c>
       <c r="I22" t="s">
-        <v>34</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>163</v>
+        <v>33</v>
+      </c>
+      <c r="J22" s="2">
+        <v>45190</v>
       </c>
       <c r="K22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M22" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="O22" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="P22" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="Q22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R22" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D23">
         <v>2024234567</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F23">
         <v>2010</v>
@@ -2405,42 +2905,42 @@
         <v>89876543210</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>169</v>
+        <v>43</v>
+      </c>
+      <c r="J23" s="2">
+        <v>45587</v>
       </c>
       <c r="K23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N23" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="O23" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="P23" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="Q23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R23" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="D24">
         <v>2025345678</v>
@@ -2452,7 +2952,7 @@
         <v>2022</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H24">
         <v>82345678901</v>
@@ -2460,43 +2960,43 @@
       <c r="I24" t="s">
         <v>21</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>175</v>
+      <c r="J24" s="2">
+        <v>45984</v>
       </c>
       <c r="K24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O24" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="P24" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="Q24" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="R24" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="D25">
         <v>2026456789</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F25">
         <v>2021</v>
@@ -2508,145 +3008,145 @@
         <v>81234567890</v>
       </c>
       <c r="I25" t="s">
-        <v>54</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>181</v>
+        <v>51</v>
+      </c>
+      <c r="J25" s="2">
+        <v>46380</v>
       </c>
       <c r="K25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="O25" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="P25" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="Q25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R25" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
         <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="D26">
         <v>2027567890</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26">
         <v>2020</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <v>89876543210</v>
       </c>
       <c r="I26" t="s">
-        <v>34</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>186</v>
+        <v>33</v>
+      </c>
+      <c r="J26" s="2">
+        <v>46412</v>
       </c>
       <c r="K26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O26" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="P26" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="Q26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R26" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="D27">
         <v>2028678901</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F27">
         <v>2019</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H27">
         <v>82345678901</v>
       </c>
       <c r="I27" t="s">
-        <v>45</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>192</v>
+        <v>43</v>
+      </c>
+      <c r="J27" s="2">
+        <v>46809</v>
       </c>
       <c r="K27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O27" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="P27" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="Q27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R27" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="D28">
         <v>2029789012</v>
@@ -2666,99 +3166,99 @@
       <c r="I28" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>198</v>
+      <c r="J28" s="2">
+        <v>47204</v>
       </c>
       <c r="K28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L28" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" t="s">
         <v>25</v>
       </c>
-      <c r="N28" t="s">
-        <v>26</v>
-      </c>
       <c r="O28" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="P28" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="Q28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R28" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="D29">
         <v>2030890123</v>
       </c>
       <c r="E29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F29">
         <v>2017</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H29">
         <v>89876543210</v>
       </c>
       <c r="I29" t="s">
-        <v>54</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>204</v>
+        <v>51</v>
+      </c>
+      <c r="J29" s="2">
+        <v>47601</v>
       </c>
       <c r="K29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M29" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="O29" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="P29" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="Q29" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="R29" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="D30">
         <v>2031901234</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F30">
         <v>2016</v>
@@ -2770,92 +3270,92 @@
         <v>81234567890</v>
       </c>
       <c r="I30" t="s">
-        <v>34</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>209</v>
+        <v>33</v>
+      </c>
+      <c r="J30" s="2">
+        <v>47997</v>
       </c>
       <c r="K30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N30" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="O30" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="P30" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="Q30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R30" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="D31">
         <v>2032012345</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F31">
         <v>2015</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H31">
         <v>82345678901</v>
       </c>
       <c r="I31" t="s">
-        <v>45</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>214</v>
+        <v>43</v>
+      </c>
+      <c r="J31" s="2">
+        <v>48395</v>
       </c>
       <c r="K31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O31" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="P31" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="Q31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R31" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="D32">
         <v>2033123456</v>
@@ -2867,7 +3367,7 @@
         <v>2014</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H32">
         <v>81234567890</v>
@@ -2875,46 +3375,46 @@
       <c r="I32" t="s">
         <v>21</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>219</v>
+      <c r="J32" s="2">
+        <v>48791</v>
       </c>
       <c r="K32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M32" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="O32" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="P32" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="Q32" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="R32" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D33">
         <v>2034234567</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F33">
         <v>2013</v>
@@ -2926,145 +3426,145 @@
         <v>89876543210</v>
       </c>
       <c r="I33" t="s">
-        <v>54</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>223</v>
+        <v>51</v>
+      </c>
+      <c r="J33" s="2">
+        <v>49186</v>
       </c>
       <c r="K33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N33" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="O33" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="P33" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="Q33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R33" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B34" t="s">
         <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="D34">
         <v>2035345678</v>
       </c>
       <c r="E34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F34">
         <v>2012</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H34">
         <v>82345678901</v>
       </c>
       <c r="I34" t="s">
-        <v>34</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>228</v>
+        <v>33</v>
+      </c>
+      <c r="J34" s="2">
+        <v>49582</v>
       </c>
       <c r="K34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O34" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="P34" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="Q34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R34" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="D35">
         <v>2036456789</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F35">
         <v>2022</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H35">
         <v>81234567890</v>
       </c>
       <c r="I35" t="s">
-        <v>45</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>232</v>
+        <v>43</v>
+      </c>
+      <c r="J35" s="2">
+        <v>49978</v>
       </c>
       <c r="K35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O35" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="P35" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="Q35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R35" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="D36">
         <v>2037567890</v>
@@ -3084,149 +3584,149 @@
       <c r="I36" t="s">
         <v>21</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>236</v>
+      <c r="J36" s="2">
+        <v>50374</v>
       </c>
       <c r="K36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L36" t="s">
+        <v>24</v>
+      </c>
+      <c r="N36" t="s">
         <v>25</v>
       </c>
-      <c r="N36" t="s">
-        <v>26</v>
-      </c>
       <c r="O36" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="P36" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="Q36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R36" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="D37">
         <v>2038678901</v>
       </c>
       <c r="E37" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F37">
         <v>2020</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H37">
         <v>82345678901</v>
       </c>
       <c r="I37" t="s">
-        <v>54</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>241</v>
+        <v>51</v>
+      </c>
+      <c r="J37" s="2">
+        <v>50769</v>
       </c>
       <c r="K37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O37" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="P37" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="Q37" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="R37" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="B38" t="s">
         <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="D38">
         <v>2039789012</v>
       </c>
       <c r="E38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F38">
         <v>2019</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <v>81234567890</v>
       </c>
       <c r="I38" t="s">
-        <v>34</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>246</v>
+        <v>33</v>
+      </c>
+      <c r="J38" s="2">
+        <v>50800</v>
       </c>
       <c r="K38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M38" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="O38" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="P38" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="Q38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R38" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="D39">
         <v>2040890123</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F39">
         <v>2018</v>
@@ -3238,42 +3738,42 @@
         <v>89876543210</v>
       </c>
       <c r="I39" t="s">
-        <v>45</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>251</v>
+        <v>43</v>
+      </c>
+      <c r="J39" s="2">
+        <v>51194</v>
       </c>
       <c r="K39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N39" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="O39" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="P39" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="Q39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R39" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:18">
       <c r="A40" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="D40">
         <v>2041901234</v>
@@ -3285,7 +3785,7 @@
         <v>2017</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H40">
         <v>81234567890</v>
@@ -3293,96 +3793,96 @@
       <c r="I40" t="s">
         <v>21</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>255</v>
+      <c r="J40" s="2">
+        <v>51584</v>
       </c>
       <c r="K40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O40" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="P40" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="Q40" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="R40" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="D41">
         <v>2042012345</v>
       </c>
       <c r="E41" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F41">
         <v>2016</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H41">
         <v>82345678901</v>
       </c>
       <c r="I41" t="s">
-        <v>54</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>260</v>
+        <v>51</v>
+      </c>
+      <c r="J41" s="2">
+        <v>51979</v>
       </c>
       <c r="K41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M41" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="O41" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="P41" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="Q41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R41" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s">
         <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="D42">
         <v>2043123456</v>
       </c>
       <c r="E42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F42">
         <v>2015</v>
@@ -3394,92 +3894,92 @@
         <v>81234567890</v>
       </c>
       <c r="I42" t="s">
-        <v>34</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>264</v>
+        <v>33</v>
+      </c>
+      <c r="J42" s="2">
+        <v>52375</v>
       </c>
       <c r="K42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N42" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="O42" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="P42" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="Q42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R42" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="D43">
         <v>2044234567</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F43">
         <v>2014</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H43">
         <v>89876543210</v>
       </c>
       <c r="I43" t="s">
-        <v>45</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>267</v>
+        <v>43</v>
+      </c>
+      <c r="J43" s="2">
+        <v>52769</v>
       </c>
       <c r="K43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O43" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="P43" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="Q43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R43" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="D44">
         <v>2045345678</v>
@@ -3491,7 +3991,7 @@
         <v>2013</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H44">
         <v>82345678901</v>
@@ -3499,46 +3999,46 @@
       <c r="I44" t="s">
         <v>21</v>
       </c>
-      <c r="J44" s="1" t="s">
-        <v>272</v>
+      <c r="J44" s="2">
+        <v>53168</v>
       </c>
       <c r="K44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M44" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O44" t="s">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="P44" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="Q44" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="R44" t="s">
-        <v>274</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="D45">
         <v>2046456789</v>
       </c>
       <c r="E45" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F45">
         <v>2012</v>
@@ -3550,45 +4050,36 @@
         <v>81234567890</v>
       </c>
       <c r="I45" t="s">
-        <v>54</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>276</v>
+        <v>51</v>
+      </c>
+      <c r="J45" s="2">
+        <v>53565</v>
       </c>
       <c r="K45" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N45" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="O45" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="P45" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="Q45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R45" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>